--- a/entradas/entrada_ponte.xlsx
+++ b/entradas/entrada_ponte.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzkaw\Documents\mecsol_ponte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzkaw\Documents\mecsol_ponte\entradas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DE3AC7-E7BE-4C2D-90B0-07724B9FA674}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC11ED92-F8B1-4CA7-B4A5-F28A4DBB8A86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>nó 1</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>1 = x               2 = y</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>D[kg/m³]</t>
+  </si>
+  <si>
+    <t>Deslocamento Max x ou y [m]</t>
+  </si>
+  <si>
+    <t>Deformação Max [%]</t>
+  </si>
+  <si>
+    <t>Tensão de ruptura em tração [PA]</t>
+  </si>
+  <si>
+    <t>Tensão de ruptura em compressão [PA]</t>
   </si>
 </sst>
 </file>
@@ -142,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,9 +170,6 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,13 +190,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,14 +542,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -548,50 +560,531 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="9">
+        <f>0.05</f>
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
         <f>COUNT(A2:A1048576)</f>
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>2.44</v>
+        <v>0.05</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>4.88</v>
+        <f>A3+0.04</f>
+        <v>0.09</v>
       </c>
       <c r="B4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f t="shared" ref="A5:A13" si="0">A4+0.04</f>
+        <v>0.13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.36999999999999994</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40999999999999992</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4499999999999999</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>1.22</v>
-      </c>
-      <c r="B5" s="10">
-        <f>(A3 * SQRT(3))/2</f>
-        <v>2.1131019852340303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>3.66</v>
-      </c>
-      <c r="B6" s="10">
-        <f>(A3 * SQRT(3))/2</f>
-        <v>2.1131019852340303</v>
+      <c r="B15" s="2">
+        <f>0.15</f>
+        <v>0.15</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="B16" s="2">
+        <f>B15</f>
+        <v>0.15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <f>A16+0.04</f>
+        <v>0.09</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" ref="B17:B26" si="1">B16</f>
+        <v>0.15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <f t="shared" ref="A18:A26" si="2">A17+0.04</f>
+        <v>0.13</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <f t="shared" si="2"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="C22" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <f t="shared" si="2"/>
+        <v>0.36999999999999994</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40999999999999992</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4499999999999999</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="C26" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B27" s="2">
+        <f>B26</f>
+        <v>0.15</v>
+      </c>
+      <c r="C27" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <f>A28+0.04</f>
+        <v>0.09</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <f t="shared" ref="A30:A32" si="3">A29+0.04</f>
+        <v>0.13</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <f>A32+0.08</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <f>A33+0.04</f>
+        <v>0.33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <f t="shared" ref="A35:A37" si="4">A34+0.04</f>
+        <v>0.37</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <f t="shared" si="4"/>
+        <v>0.41</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <f t="shared" si="4"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <f>A38+0.4</f>
+        <v>0.45</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <f>0.05+(3*0.04)</f>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C40" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <f>A40+0.04</f>
+        <v>0.21</v>
+      </c>
+      <c r="B41" s="2">
+        <f>B40</f>
+        <v>0.2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <f t="shared" ref="A42:A44" si="5">A41+0.04</f>
+        <v>0.25</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" ref="B42:B45" si="6">B41</f>
+        <v>0.2</v>
+      </c>
+      <c r="C42" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <f t="shared" si="5"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="C43" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <f t="shared" si="5"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="C44" s="2">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -601,162 +1094,2132 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="G1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <f xml:space="preserve"> 4 * 10^9</f>
+        <v>4000000000</v>
+      </c>
+      <c r="D2" s="3">
+        <f>0.33/J3</f>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E2">
+        <v>848</v>
+      </c>
+      <c r="F2" s="6">
+        <f>COUNT(A2:A1048576)</f>
+        <v>90</v>
+      </c>
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <f>C2</f>
+        <v>4000000000</v>
+      </c>
+      <c r="D3" s="3">
+        <f>D2</f>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E3">
+        <f>E2</f>
+        <v>848</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <f xml:space="preserve"> 200 * 10^9</f>
-        <v>200000000000</v>
-      </c>
-      <c r="D2" s="3">
-        <f>1.3*10^-3</f>
-        <v>1.3000000000000002E-3</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="7">
-        <f>COUNT(A2:A1048576)</f>
+      <c r="J3">
+        <f>K3/K4^2</f>
+        <v>4242.085772110896</v>
+      </c>
+      <c r="K3">
+        <f>0.33866363</f>
+        <v>0.33866362999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C67" si="0">C3</f>
+        <v>4000000000</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D67" si="1">D3</f>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E67" si="2">E3</f>
+        <v>848</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <f>0.33/J3</f>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="K4">
+        <v>8.9350000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B12" s="10">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="10">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>28</v>
+      </c>
+      <c r="B16">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:C8" si="0" xml:space="preserve"> 200 * 10^9</f>
-        <v>200000000000</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D8" si="1">1.3*10^-3</f>
-        <v>1.3000000000000002E-3</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
-        <f t="shared" si="0"/>
-        <v>200000000000</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>29</v>
+      </c>
+      <c r="B18">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
-        <f t="shared" si="0"/>
-        <v>200000000000</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
-        <f t="shared" si="0"/>
-        <v>200000000000</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>32</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>33</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G28" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>35</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>36</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G32" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>36</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G33" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G34" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G35" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>27</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>27</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G38" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>28</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G39" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>28</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G40" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>29</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G41" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>29</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G42" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>30</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G43" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>30</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G44" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <v>31</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G45" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>31</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G46" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>32</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G47" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>21</v>
+      </c>
+      <c r="B48">
+        <v>32</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G48" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>33</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G49" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>33</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G50" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>34</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G51" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>23</v>
+      </c>
+      <c r="B52">
+        <v>34</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G52" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <v>35</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G53" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>24</v>
+      </c>
+      <c r="B54">
+        <v>35</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G54" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>24</v>
+      </c>
+      <c r="B55">
+        <v>36</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G55" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>25</v>
+      </c>
+      <c r="B56">
+        <v>36</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G56" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>26</v>
+      </c>
+      <c r="B57">
+        <v>36</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G57" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>26</v>
+      </c>
+      <c r="B58">
+        <v>13</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G58" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>14</v>
+      </c>
+      <c r="B59">
+        <v>15</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G59" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>15</v>
+      </c>
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G60" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>16</v>
+      </c>
+      <c r="B61">
+        <v>17</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>17</v>
+      </c>
+      <c r="B62">
+        <v>18</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G62" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>18</v>
+      </c>
+      <c r="B63">
+        <v>19</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G63" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>19</v>
+      </c>
+      <c r="B64">
+        <v>20</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G64" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>20</v>
+      </c>
+      <c r="B65">
+        <v>21</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G65" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>21</v>
+      </c>
+      <c r="B66">
+        <v>22</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G66" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>23</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" si="0"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="G67" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>23</v>
+      </c>
+      <c r="B68">
+        <v>24</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" ref="C68:C89" si="3">C67</f>
+        <v>4000000000</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" ref="D68:D89" si="4">D67</f>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E89" si="5">E67</f>
+        <v>848</v>
+      </c>
+      <c r="G68" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>24</v>
+      </c>
+      <c r="B69">
+        <v>25</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G69" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>25</v>
+      </c>
+      <c r="B70">
+        <v>26</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G70" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>16</v>
+      </c>
+      <c r="B71">
+        <v>39</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G71" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>17</v>
+      </c>
+      <c r="B72">
+        <v>39</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G72" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>18</v>
+      </c>
+      <c r="B73">
+        <v>39</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D73" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G73" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>18</v>
+      </c>
+      <c r="B74">
+        <v>40</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D74" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G74" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>19</v>
+      </c>
+      <c r="B75">
+        <v>40</v>
+      </c>
+      <c r="C75" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G75" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>19</v>
+      </c>
+      <c r="B76">
+        <v>41</v>
+      </c>
+      <c r="C76" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G76" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>20</v>
+      </c>
+      <c r="B77">
+        <v>41</v>
+      </c>
+      <c r="C77" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G77" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>21</v>
+      </c>
+      <c r="B78">
+        <v>41</v>
+      </c>
+      <c r="C78" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G78" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>21</v>
+      </c>
+      <c r="B79">
+        <v>42</v>
+      </c>
+      <c r="C79" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G79" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>22</v>
+      </c>
+      <c r="B80">
+        <v>42</v>
+      </c>
+      <c r="C80" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G80" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>22</v>
+      </c>
+      <c r="B81">
+        <v>43</v>
+      </c>
+      <c r="C81" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D81" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G81" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>23</v>
+      </c>
+      <c r="B82">
+        <v>43</v>
+      </c>
+      <c r="C82" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D82" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G82" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>24</v>
+      </c>
+      <c r="B83">
+        <v>43</v>
+      </c>
+      <c r="C83" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D83" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G83" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>39</v>
+      </c>
+      <c r="B84">
+        <v>40</v>
+      </c>
+      <c r="C84" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D84" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G84" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>40</v>
+      </c>
+      <c r="B85">
+        <v>41</v>
+      </c>
+      <c r="C85" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G85" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>41</v>
+      </c>
+      <c r="B86">
+        <v>42</v>
+      </c>
+      <c r="C86" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G86" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>42</v>
+      </c>
+      <c r="B87">
+        <v>43</v>
+      </c>
+      <c r="C87" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D87" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G87" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>37</v>
+      </c>
+      <c r="B88">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>200000000000</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3000000000000002E-3</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>200000000000</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="13"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="12"/>
+      <c r="C88" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D88" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G88" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>38</v>
+      </c>
+      <c r="B89">
+        <v>11</v>
+      </c>
+      <c r="C89" s="3">
+        <f t="shared" si="3"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D89" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="G89" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>20</v>
+      </c>
+      <c r="B90">
+        <v>40</v>
+      </c>
+      <c r="C90" s="3">
+        <f t="shared" ref="C90:E91" si="6">C89</f>
+        <v>4000000000</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" si="6"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="6"/>
+        <v>848</v>
+      </c>
+      <c r="G90" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>20</v>
+      </c>
+      <c r="B91">
+        <v>42</v>
+      </c>
+      <c r="C91" s="3">
+        <f t="shared" si="6"/>
+        <v>4000000000</v>
+      </c>
+      <c r="D91" s="3">
+        <f t="shared" si="6"/>
+        <v>7.7791920703147255E-5</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="6"/>
+        <v>848</v>
+      </c>
+      <c r="G91" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H92" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -769,7 +3232,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,41 +3241,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <f xml:space="preserve"> -(4.4 * 10^3)</f>
-        <v>-4400</v>
+        <f xml:space="preserve"> -475</f>
+        <v>-475</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <f>COUNT(A2:A1048576)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="2">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C2</f>
+        <v>-475</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
@@ -966,24 +3436,37 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.5546875" customWidth="1"/>
+    <col min="1" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -993,10 +3476,23 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="9">
+      <c r="C2" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="D2" s="8">
         <f>COUNT(A2:A1048576)</f>
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <f>4*10^6</f>
+        <v>4000000</v>
+      </c>
+      <c r="F2" s="2">
+        <f>4*10^6</f>
+        <v>4000000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1011,7 +3507,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1020,61 +3516,93 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
@@ -1140,5 +3668,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>